--- a/data/case1/19/Plm1_1.xlsx
+++ b/data/case1/19/Plm1_1.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.32939649642965207</v>
+        <v>-0.45114143204246204</v>
       </c>
       <c r="B1" s="0">
-        <v>0.32873714881169747</v>
+        <v>0.44992139018805233</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.28262795307373523</v>
+        <v>-0.28706934051398569</v>
       </c>
       <c r="B2" s="0">
-        <v>0.28002029021256725</v>
+        <v>0.28414972514070058</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.17707154168097006</v>
+        <v>-0.1811999640291333</v>
       </c>
       <c r="B3" s="0">
-        <v>0.17633411461397586</v>
+        <v>0.18035343491319367</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.16433411475084014</v>
+        <v>-0.16835343517552204</v>
       </c>
       <c r="B4" s="0">
-        <v>0.16367128754595228</v>
+        <v>0.1675961758625526</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.10755964664411533</v>
+        <v>-0.16159617693183126</v>
       </c>
       <c r="B5" s="0">
-        <v>0.10679010613776008</v>
+        <v>0.16008171118960846</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0068550216463352243</v>
+        <v>-0.067346167750745423</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.0068563440196482972</v>
+        <v>0.067287545605181354</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.02685634342899057</v>
+        <v>-0.047287546884648535</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.026889344169862994</v>
+        <v>0.047182855364178877</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.046889343581344001</v>
+        <v>-0.02718285665007425</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.047048760607850681</v>
+        <v>0.027128665564690735</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.039263508983581552</v>
+        <v>-0.021128666683043917</v>
       </c>
       <c r="B9" s="0">
-        <v>0.03913541574869317</v>
+        <v>0.021091778056597121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.033135416238756932</v>
+        <v>-0.015091779178909803</v>
       </c>
       <c r="B10" s="0">
-        <v>0.033121909703446306</v>
+        <v>0.015093391277616774</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.028621910182835109</v>
+        <v>-0.010593392381348821</v>
       </c>
       <c r="B11" s="0">
-        <v>0.028600103772085106</v>
+        <v>0.010590405809480785</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.022600104262946896</v>
+        <v>-0.0045904069323139396</v>
       </c>
       <c r="B12" s="0">
-        <v>0.022541290185146501</v>
+        <v>0.0045569220112740005</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.016541290679626286</v>
+        <v>0.0014430768652431425</v>
       </c>
       <c r="B13" s="0">
-        <v>0.016530411718211013</v>
+        <v>-0.0014591090541440366</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0045304122553533333</v>
+        <v>0.013459107856981234</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0045299758294259362</v>
+        <v>-0.013499268220733107</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021051538014979165</v>
+        <v>0.019499267099516437</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021026931542623473</v>
+        <v>-0.01956338989646067</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.01502693203985217</v>
+        <v>0.02556338877856712</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004174668469261</v>
+        <v>-0.025710746670258189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.009004175167850903</v>
+        <v>-0.0090037473538879809</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999994791645221</v>
+        <v>0.0089999988527065256</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.036109196219740625</v>
+        <v>-0.15285205073323027</v>
       </c>
       <c r="B18" s="0">
-        <v>0.036096663682439356</v>
+        <v>0.15261816521022809</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027096664157674422</v>
+        <v>-0.083045269342124861</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027013493009816703</v>
+        <v>0.082390742573851483</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013493489430488</v>
+        <v>-0.051812326827821664</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004265870191105</v>
+        <v>0.051742978611455825</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090042663505096598</v>
+        <v>-0.009004286240856807</v>
       </c>
       <c r="B21" s="0">
-        <v>0.008999999519152091</v>
+        <v>0.0089999989133486835</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093948749021995681</v>
+        <v>-0.09394976219108031</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093635497355856856</v>
+        <v>0.093636821278234805</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084635497850722885</v>
+        <v>-0.084636822366303655</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084126978244718487</v>
+        <v>0.084127030232266087</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042126978977576002</v>
+        <v>-0.042127031743281584</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999263023113</v>
+        <v>0.041999998481231593</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.10764512827753592</v>
+        <v>-0.086735544542730025</v>
       </c>
       <c r="B25" s="0">
-        <v>0.10746915802442203</v>
+        <v>0.086628956473344232</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.10146915852003247</v>
+        <v>-0.080628957579332194</v>
       </c>
       <c r="B26" s="0">
-        <v>0.10124701158083838</v>
+        <v>0.08049625183935305</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.095247012079697324</v>
+        <v>-0.074496252949883601</v>
       </c>
       <c r="B27" s="0">
-        <v>0.094503734381798932</v>
+        <v>0.074055759857080794</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.075278067081690381</v>
+        <v>-0.06805576098656374</v>
       </c>
       <c r="B28" s="0">
-        <v>0.074537063105243107</v>
+        <v>0.067773819344518316</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0625370636656708</v>
+        <v>-0.05577382056078406</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062170034702013766</v>
+        <v>0.055659529660987417</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042170035321921429</v>
+        <v>-0.035659530982259824</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042019440107972983</v>
+        <v>0.03544174027945024</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027019440698268227</v>
+        <v>-0.020441741546871839</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000680883540795</v>
+        <v>0.020378198152570803</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060006815165865035</v>
+        <v>-0.0060005259916007248</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999994711841254</v>
+        <v>0.0059999988425225581</v>
       </c>
     </row>
   </sheetData>
